--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H2">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I2">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J2">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N2">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O2">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P2">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q2">
-        <v>15.08850903511355</v>
+        <v>8.096453032036445</v>
       </c>
       <c r="R2">
-        <v>135.796581316022</v>
+        <v>72.868077288328</v>
       </c>
       <c r="S2">
-        <v>0.00485107835408416</v>
+        <v>0.004938064128244286</v>
       </c>
       <c r="T2">
-        <v>0.004851078354084161</v>
+        <v>0.004938064128244285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H3">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I3">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J3">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>27.280679</v>
       </c>
       <c r="O3">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P3">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q3">
-        <v>5.734683657336221</v>
+        <v>2.330682373753222</v>
       </c>
       <c r="R3">
-        <v>51.612152916026</v>
+        <v>20.976141363779</v>
       </c>
       <c r="S3">
-        <v>0.001843747430106143</v>
+        <v>0.001421493952799135</v>
       </c>
       <c r="T3">
-        <v>0.001843747430106143</v>
+        <v>0.001421493952799135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H4">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I4">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J4">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N4">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O4">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P4">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q4">
-        <v>59.10009573419889</v>
+        <v>17.93912397699645</v>
       </c>
       <c r="R4">
-        <v>531.90086160779</v>
+        <v>161.452115792968</v>
       </c>
       <c r="S4">
-        <v>0.01900116137872043</v>
+        <v>0.01094115463307419</v>
       </c>
       <c r="T4">
-        <v>0.01900116137872043</v>
+        <v>0.01094115463307419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H5">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I5">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J5">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N5">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O5">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P5">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q5">
-        <v>3.679029835221555</v>
+        <v>1.446474160489556</v>
       </c>
       <c r="R5">
-        <v>33.111268516994</v>
+        <v>13.018267444406</v>
       </c>
       <c r="S5">
-        <v>0.00118283800978211</v>
+        <v>0.0008822112764790742</v>
       </c>
       <c r="T5">
-        <v>0.00118283800978211</v>
+        <v>0.0008822112764790742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H6">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I6">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J6">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N6">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O6">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P6">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q6">
-        <v>9.488983966820888</v>
+        <v>3.155420195472222</v>
       </c>
       <c r="R6">
-        <v>85.40085570138798</v>
+        <v>28.39878175925</v>
       </c>
       <c r="S6">
-        <v>0.003050785509461044</v>
+        <v>0.001924505362427799</v>
       </c>
       <c r="T6">
-        <v>0.003050785509461044</v>
+        <v>0.001924505362427799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H7">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I7">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J7">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N7">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O7">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P7">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q7">
-        <v>54.72789359505467</v>
+        <v>16.003873120158</v>
       </c>
       <c r="R7">
-        <v>492.551042355492</v>
+        <v>144.034858081422</v>
       </c>
       <c r="S7">
-        <v>0.01759546283637116</v>
+        <v>0.009760836190233265</v>
       </c>
       <c r="T7">
-        <v>0.01759546283637116</v>
+        <v>0.009760836190233265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H8">
         <v>19.486935</v>
       </c>
       <c r="I8">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J8">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N8">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O8">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P8">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q8">
-        <v>155.415046939295</v>
+        <v>205.19553748252</v>
       </c>
       <c r="R8">
-        <v>1398.735422453655</v>
+        <v>1846.75983734268</v>
       </c>
       <c r="S8">
-        <v>0.04996720142140364</v>
+        <v>0.1251497067801031</v>
       </c>
       <c r="T8">
-        <v>0.04996720142140365</v>
+        <v>0.1251497067801031</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H9">
         <v>19.486935</v>
       </c>
       <c r="I9">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J9">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>27.280679</v>
       </c>
       <c r="O9">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P9">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q9">
-        <v>59.06853538098499</v>
+        <v>59.068535380985</v>
       </c>
       <c r="R9">
-        <v>531.6168184288649</v>
+        <v>531.616818428865</v>
       </c>
       <c r="S9">
-        <v>0.01899101446851433</v>
+        <v>0.03602617275967884</v>
       </c>
       <c r="T9">
-        <v>0.01899101446851434</v>
+        <v>0.03602617275967884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H10">
         <v>19.486935</v>
       </c>
       <c r="I10">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J10">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N10">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O10">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P10">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q10">
-        <v>608.744318691275</v>
+        <v>454.64701294012</v>
       </c>
       <c r="R10">
-        <v>5478.698868221475</v>
+        <v>4091.823116461081</v>
       </c>
       <c r="S10">
-        <v>0.195716248749473</v>
+        <v>0.2772913146941746</v>
       </c>
       <c r="T10">
-        <v>0.195716248749473</v>
+        <v>0.2772913146941747</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H11">
         <v>19.486935</v>
       </c>
       <c r="I11">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J11">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N11">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O11">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P11">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q11">
-        <v>37.894837269965</v>
+        <v>36.65926815629</v>
       </c>
       <c r="R11">
-        <v>341.053535429685</v>
+        <v>329.93341340661</v>
       </c>
       <c r="S11">
-        <v>0.01218349834195433</v>
+        <v>0.02235865709761692</v>
       </c>
       <c r="T11">
-        <v>0.01218349834195433</v>
+        <v>0.02235865709761692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H12">
         <v>19.486935</v>
       </c>
       <c r="I12">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J12">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N12">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O12">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P12">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q12">
-        <v>97.73867551642998</v>
+        <v>79.97059211375</v>
       </c>
       <c r="R12">
-        <v>879.6480796478698</v>
+        <v>719.7353290237501</v>
       </c>
       <c r="S12">
-        <v>0.03142377898645973</v>
+        <v>0.04877443377597632</v>
       </c>
       <c r="T12">
-        <v>0.03142377898645974</v>
+        <v>0.04877443377597632</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H13">
         <v>19.486935</v>
       </c>
       <c r="I13">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J13">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N13">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O13">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P13">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q13">
-        <v>563.70965031537</v>
+        <v>405.6002466387301</v>
       </c>
       <c r="R13">
-        <v>5073.38685283833</v>
+        <v>3650.402219748571</v>
       </c>
       <c r="S13">
-        <v>0.1812372366460702</v>
+        <v>0.2473774652194798</v>
       </c>
       <c r="T13">
-        <v>0.1812372366460702</v>
+        <v>0.2473774652194799</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H14">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I14">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J14">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N14">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O14">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P14">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q14">
-        <v>146.3905363233769</v>
+        <v>56.99960806901156</v>
       </c>
       <c r="R14">
-        <v>1317.514826910392</v>
+        <v>512.9964726211041</v>
       </c>
       <c r="S14">
-        <v>0.04706574787134096</v>
+        <v>0.03476432442896218</v>
       </c>
       <c r="T14">
-        <v>0.04706574787134097</v>
+        <v>0.03476432442896218</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H15">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I15">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J15">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>27.280679</v>
       </c>
       <c r="O15">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P15">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q15">
-        <v>55.63859320285955</v>
+        <v>16.40817050523578</v>
       </c>
       <c r="R15">
-        <v>500.747338825736</v>
+        <v>147.673534547122</v>
       </c>
       <c r="S15">
-        <v>0.01788826016606185</v>
+        <v>0.01000741903416454</v>
       </c>
       <c r="T15">
-        <v>0.01788826016606185</v>
+        <v>0.01000741903416454</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H16">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I16">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J16">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N16">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O16">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P16">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q16">
-        <v>573.3962640813822</v>
+        <v>126.2927150622916</v>
       </c>
       <c r="R16">
-        <v>5160.56637673244</v>
+        <v>1136.634435560624</v>
       </c>
       <c r="S16">
-        <v>0.1843515617430907</v>
+        <v>0.07702651067572715</v>
       </c>
       <c r="T16">
-        <v>0.1843515617430908</v>
+        <v>0.07702651067572716</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H17">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I17">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J17">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N17">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O17">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P17">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q17">
-        <v>35.69439163766489</v>
+        <v>10.18328148185645</v>
       </c>
       <c r="R17">
-        <v>321.249524738984</v>
+        <v>91.64953333670802</v>
       </c>
       <c r="S17">
-        <v>0.01147603717721309</v>
+        <v>0.006210830445677472</v>
       </c>
       <c r="T17">
-        <v>0.0114760371772131</v>
+        <v>0.006210830445677471</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H18">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I18">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J18">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N18">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O18">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P18">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q18">
-        <v>92.0632680693742</v>
+        <v>22.21438372127778</v>
       </c>
       <c r="R18">
-        <v>828.5694126243679</v>
+        <v>199.9294534915</v>
       </c>
       <c r="S18">
-        <v>0.02959908933999108</v>
+        <v>0.01354865531252326</v>
       </c>
       <c r="T18">
-        <v>0.02959908933999109</v>
+        <v>0.01354865531252326</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H19">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I19">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J19">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N19">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O19">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P19">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q19">
-        <v>530.9766310630347</v>
+        <v>112.668410701044</v>
       </c>
       <c r="R19">
-        <v>4778.789679567312</v>
+        <v>1014.015696309396</v>
       </c>
       <c r="S19">
-        <v>0.1707133047725304</v>
+        <v>0.06871698447056658</v>
       </c>
       <c r="T19">
-        <v>0.1707133047725305</v>
+        <v>0.06871698447056658</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1665,10 +1665,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I20">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J20">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N20">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O20">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P20">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q20">
-        <v>0.5911406126303334</v>
+        <v>0.7804869484986667</v>
       </c>
       <c r="R20">
-        <v>5.320265513673</v>
+        <v>7.024382536488</v>
       </c>
       <c r="S20">
-        <v>0.0001900565140980796</v>
+        <v>0.0004760225975120266</v>
       </c>
       <c r="T20">
-        <v>0.0001900565140980796</v>
+        <v>0.0004760225975120264</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1727,10 +1727,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I21">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J21">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,10 +1745,10 @@
         <v>27.280679</v>
       </c>
       <c r="O21">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P21">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q21">
         <v>0.2246745786843334</v>
@@ -1757,10 +1757,10 @@
         <v>2.022071208159</v>
       </c>
       <c r="S21">
-        <v>7.223470409383266E-05</v>
+        <v>0.0001370300640465088</v>
       </c>
       <c r="T21">
-        <v>7.223470409383268E-05</v>
+        <v>0.0001370300640465088</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1789,10 +1789,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I22">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J22">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N22">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O22">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P22">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q22">
-        <v>2.315435323498334</v>
+        <v>1.729306904658667</v>
       </c>
       <c r="R22">
-        <v>20.838917911485</v>
+        <v>15.563762141928</v>
       </c>
       <c r="S22">
-        <v>0.0007444312855541257</v>
+        <v>0.001054712274477588</v>
       </c>
       <c r="T22">
-        <v>0.0007444312855541259</v>
+        <v>0.001054712274477588</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1851,10 +1851,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I23">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J23">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N23">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O23">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P23">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q23">
-        <v>0.1441377637523333</v>
+        <v>0.1394381217473334</v>
       </c>
       <c r="R23">
-        <v>1.297239873771</v>
+        <v>1.254943095726</v>
       </c>
       <c r="S23">
-        <v>4.634146317027265E-05</v>
+        <v>8.50439549745747E-05</v>
       </c>
       <c r="T23">
-        <v>4.634146317027266E-05</v>
+        <v>8.50439549745747E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1913,10 +1913,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I24">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J24">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N24">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O24">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P24">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q24">
-        <v>0.3717613040713333</v>
+        <v>0.3041781715833334</v>
       </c>
       <c r="R24">
-        <v>3.345851736642</v>
+        <v>2.73760354425</v>
       </c>
       <c r="S24">
-        <v>0.0001195242824105167</v>
+        <v>0.0001855196728428119</v>
       </c>
       <c r="T24">
-        <v>0.0001195242824105167</v>
+        <v>0.0001855196728428119</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1975,10 +1975,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I25">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J25">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N25">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O25">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P25">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q25">
-        <v>2.144140317142</v>
+        <v>1.542751380918</v>
       </c>
       <c r="R25">
-        <v>19.297262854278</v>
+        <v>13.884762428262</v>
       </c>
       <c r="S25">
-        <v>0.0006893585480447987</v>
+        <v>0.0009409311982378483</v>
       </c>
       <c r="T25">
-        <v>0.0006893585480447987</v>
+        <v>0.0009409311982378484</v>
       </c>
     </row>
   </sheetData>
